--- a/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2817,7 +2817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>150</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>250</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>402</v>
       </c>
@@ -8723,12 +8723,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN61">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
